--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111438439</v>
+        <v>111438455</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>468788.4775288465</v>
+        <v>468784.2260541836</v>
       </c>
       <c r="R2" t="n">
-        <v>6882785.67140964</v>
+        <v>6882884.599394682</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111438433</v>
+        <v>111438432</v>
       </c>
       <c r="B3" t="n">
-        <v>78081</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229821</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438455</v>
+        <v>111438439</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468784.2260541836</v>
+        <v>468788.4775288465</v>
       </c>
       <c r="R4" t="n">
-        <v>6882884.599394682</v>
+        <v>6882785.67140964</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111438457</v>
+        <v>111438435</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468747.5763832342</v>
+        <v>468754.6686940129</v>
       </c>
       <c r="R5" t="n">
-        <v>6882880.250689426</v>
+        <v>6882784.108355919</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111438435</v>
+        <v>111438446</v>
       </c>
       <c r="B6" t="n">
-        <v>76495</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6487</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>468754.6686940129</v>
+        <v>468853.3954624244</v>
       </c>
       <c r="R6" t="n">
-        <v>6882784.108355919</v>
+        <v>6882801.477506777</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111438432</v>
+        <v>111438430</v>
       </c>
       <c r="B7" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111438442</v>
+        <v>111438426</v>
       </c>
       <c r="B8" t="n">
-        <v>73696</v>
+        <v>76918</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>468800.3617588138</v>
+        <v>468629.2461709682</v>
       </c>
       <c r="R8" t="n">
-        <v>6882801.965499061</v>
+        <v>6882722.464435354</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111438430</v>
+        <v>111438433</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>78081</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111438428</v>
+        <v>111438453</v>
       </c>
       <c r="B11" t="n">
-        <v>77597</v>
+        <v>78107</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>864</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>468740.5586073888</v>
+        <v>468789.3971357156</v>
       </c>
       <c r="R11" t="n">
-        <v>6882780.957796668</v>
+        <v>6882885.489071017</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111438444</v>
+        <v>111438447</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>76495</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2051,21 +2051,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>468841.2361184616</v>
+        <v>468866.1318338988</v>
       </c>
       <c r="R13" t="n">
-        <v>6882806.276033297</v>
+        <v>6882808.390505624</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111438426</v>
+        <v>111438428</v>
       </c>
       <c r="B14" t="n">
-        <v>76918</v>
+        <v>77597</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2173,21 +2173,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6437</v>
+        <v>864</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468629.2461709682</v>
+        <v>468740.5586073888</v>
       </c>
       <c r="R14" t="n">
-        <v>6882722.464435354</v>
+        <v>6882780.957796668</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111438446</v>
+        <v>111438457</v>
       </c>
       <c r="B15" t="n">
-        <v>77550</v>
+        <v>78107</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2295,21 +2295,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>468853.3954624244</v>
+        <v>468747.5763832342</v>
       </c>
       <c r="R15" t="n">
-        <v>6882801.477506777</v>
+        <v>6882880.250689426</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111438447</v>
+        <v>111438442</v>
       </c>
       <c r="B16" t="n">
-        <v>76495</v>
+        <v>73696</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2417,21 +2417,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6487</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>468866.1318338988</v>
+        <v>468800.3617588138</v>
       </c>
       <c r="R16" t="n">
-        <v>6882808.390505624</v>
+        <v>6882801.965499061</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111438453</v>
+        <v>111438444</v>
       </c>
       <c r="B17" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,21 +2539,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>468789.3971357156</v>
+        <v>468841.2361184616</v>
       </c>
       <c r="R17" t="n">
-        <v>6882885.489071017</v>
+        <v>6882806.276033297</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>

--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111438455</v>
+        <v>111438440</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>468784.2260541836</v>
+        <v>468800.2970216064</v>
       </c>
       <c r="R2" t="n">
-        <v>6882884.599394682</v>
+        <v>6882794.936009536</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>högstubbe björk</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111438432</v>
+        <v>111438433</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>78081</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438439</v>
+        <v>111438457</v>
       </c>
       <c r="B4" t="n">
         <v>78107</v>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468788.4775288465</v>
+        <v>468747.5763832342</v>
       </c>
       <c r="R4" t="n">
-        <v>6882785.67140964</v>
+        <v>6882880.250689426</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111438446</v>
+        <v>111438453</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>468853.3954624244</v>
+        <v>468789.3971357156</v>
       </c>
       <c r="R6" t="n">
-        <v>6882801.477506777</v>
+        <v>6882885.489071017</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111438430</v>
+        <v>111438432</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111438426</v>
+        <v>111438439</v>
       </c>
       <c r="B8" t="n">
-        <v>76918</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>468629.2461709682</v>
+        <v>468788.4775288465</v>
       </c>
       <c r="R8" t="n">
-        <v>6882722.464435354</v>
+        <v>6882785.67140964</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111438440</v>
+        <v>111438428</v>
       </c>
       <c r="B9" t="n">
-        <v>73689</v>
+        <v>77597</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>308</v>
+        <v>864</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>468800.2970216064</v>
+        <v>468740.5586073888</v>
       </c>
       <c r="R9" t="n">
-        <v>6882794.936009536</v>
+        <v>6882780.957796668</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>högstubbe björk</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111438433</v>
+        <v>111438426</v>
       </c>
       <c r="B10" t="n">
-        <v>78081</v>
+        <v>76918</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>6437</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>468756.5460031229</v>
+        <v>468629.2461709682</v>
       </c>
       <c r="R10" t="n">
-        <v>6882784.091042386</v>
+        <v>6882722.464435354</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111438453</v>
+        <v>111438447</v>
       </c>
       <c r="B11" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>468789.3971357156</v>
+        <v>468866.1318338988</v>
       </c>
       <c r="R11" t="n">
-        <v>6882885.489071017</v>
+        <v>6882808.390505624</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111438425</v>
+        <v>111438430</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,42 +1916,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>468571.5178632676</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R12" t="n">
-        <v>6882722.999468728</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1996,11 +1988,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack i tall</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2017,7 +2004,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2035,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111438447</v>
+        <v>111438442</v>
       </c>
       <c r="B13" t="n">
-        <v>76495</v>
+        <v>73696</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2051,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6487</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2075,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>468866.1318338988</v>
+        <v>468800.3617588138</v>
       </c>
       <c r="R13" t="n">
-        <v>6882808.390505624</v>
+        <v>6882801.965499061</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2139,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2157,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111438428</v>
+        <v>111438444</v>
       </c>
       <c r="B14" t="n">
-        <v>77597</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2173,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2197,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468740.5586073888</v>
+        <v>468841.2361184616</v>
       </c>
       <c r="R14" t="n">
-        <v>6882780.957796668</v>
+        <v>6882806.276033297</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2261,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2279,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111438457</v>
+        <v>111438425</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2295,34 +2282,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>468747.5763832342</v>
+        <v>468571.5178632676</v>
       </c>
       <c r="R15" t="n">
-        <v>6882880.250689426</v>
+        <v>6882722.999468728</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2367,6 +2362,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack i tall</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111438442</v>
+        <v>111438455</v>
       </c>
       <c r="B16" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2417,21 +2417,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>468800.3617588138</v>
+        <v>468784.2260541836</v>
       </c>
       <c r="R16" t="n">
-        <v>6882801.965499061</v>
+        <v>6882884.599394682</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111438444</v>
+        <v>111438446</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,21 +2539,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>468841.2361184616</v>
+        <v>468853.3954624244</v>
       </c>
       <c r="R17" t="n">
-        <v>6882806.276033297</v>
+        <v>6882801.477506777</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>

--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111438440</v>
+        <v>111438447</v>
       </c>
       <c r="B2" t="n">
-        <v>73689</v>
+        <v>76495</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>308</v>
+        <v>6487</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>468800.2970216064</v>
+        <v>468866.1318338988</v>
       </c>
       <c r="R2" t="n">
-        <v>6882794.936009536</v>
+        <v>6882808.390505624</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>högstubbe björk</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111438433</v>
+        <v>111438444</v>
       </c>
       <c r="B3" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>468756.5460031229</v>
+        <v>468841.2361184616</v>
       </c>
       <c r="R3" t="n">
-        <v>6882784.091042386</v>
+        <v>6882806.276033297</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438457</v>
+        <v>111438439</v>
       </c>
       <c r="B4" t="n">
         <v>78107</v>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468747.5763832342</v>
+        <v>468788.4775288465</v>
       </c>
       <c r="R4" t="n">
-        <v>6882880.250689426</v>
+        <v>6882785.67140964</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111438435</v>
+        <v>111438446</v>
       </c>
       <c r="B5" t="n">
-        <v>76495</v>
+        <v>77550</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6487</v>
+        <v>185</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468754.6686940129</v>
+        <v>468853.3954624244</v>
       </c>
       <c r="R5" t="n">
-        <v>6882784.108355919</v>
+        <v>6882801.477506777</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111438453</v>
+        <v>111438425</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,34 +1184,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>468789.3971357156</v>
+        <v>468571.5178632676</v>
       </c>
       <c r="R6" t="n">
-        <v>6882885.489071017</v>
+        <v>6882722.999468728</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,6 +1264,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack i tall</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1272,7 +1285,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1303,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111438432</v>
+        <v>111438428</v>
       </c>
       <c r="B7" t="n">
-        <v>77267</v>
+        <v>77597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1319,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>864</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1343,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>468756.5460031229</v>
+        <v>468740.5586073888</v>
       </c>
       <c r="R7" t="n">
-        <v>6882784.091042386</v>
+        <v>6882780.957796668</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,7 +1407,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1412,10 +1425,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111438439</v>
+        <v>111438442</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>73696</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1441,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1465,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>468788.4775288465</v>
+        <v>468800.3617588138</v>
       </c>
       <c r="R8" t="n">
-        <v>6882785.67140964</v>
+        <v>6882801.965499061</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1529,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1547,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111438428</v>
+        <v>111438440</v>
       </c>
       <c r="B9" t="n">
-        <v>77597</v>
+        <v>73689</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1563,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>308</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1587,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>468740.5586073888</v>
+        <v>468800.2970216064</v>
       </c>
       <c r="R9" t="n">
-        <v>6882780.957796668</v>
+        <v>6882794.936009536</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1651,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>högstubbe björk</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111438426</v>
+        <v>111438430</v>
       </c>
       <c r="B10" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1685,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>468629.2461709682</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R10" t="n">
-        <v>6882722.464435354</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1760,7 +1773,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1778,10 +1791,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111438447</v>
+        <v>111438432</v>
       </c>
       <c r="B11" t="n">
-        <v>76495</v>
+        <v>77267</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1807,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1831,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>468866.1318338988</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R11" t="n">
-        <v>6882808.390505624</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1895,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,10 +1913,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111438430</v>
+        <v>111438457</v>
       </c>
       <c r="B12" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,21 +1929,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1940,10 +1953,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>468756.5460031229</v>
+        <v>468747.5763832342</v>
       </c>
       <c r="R12" t="n">
-        <v>6882784.091042386</v>
+        <v>6882880.250689426</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2004,7 +2017,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2022,10 +2035,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111438442</v>
+        <v>111438435</v>
       </c>
       <c r="B13" t="n">
-        <v>73696</v>
+        <v>76495</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2051,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>6487</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2075,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>468800.3617588138</v>
+        <v>468754.6686940129</v>
       </c>
       <c r="R13" t="n">
-        <v>6882801.965499061</v>
+        <v>6882784.108355919</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2139,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,7 +2157,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111438444</v>
+        <v>111438455</v>
       </c>
       <c r="B14" t="n">
         <v>77515</v>
@@ -2184,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468841.2361184616</v>
+        <v>468784.2260541836</v>
       </c>
       <c r="R14" t="n">
-        <v>6882806.276033297</v>
+        <v>6882884.599394682</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2266,10 +2279,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111438425</v>
+        <v>111438453</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,42 +2295,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>468571.5178632676</v>
+        <v>468789.3971357156</v>
       </c>
       <c r="R15" t="n">
-        <v>6882722.999468728</v>
+        <v>6882885.489071017</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2362,11 +2367,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack i tall</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111438455</v>
+        <v>111438433</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>78081</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2417,21 +2417,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>468784.2260541836</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R16" t="n">
-        <v>6882884.599394682</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111438446</v>
+        <v>111438426</v>
       </c>
       <c r="B17" t="n">
-        <v>77550</v>
+        <v>76918</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,21 +2539,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6437</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>468853.3954624244</v>
+        <v>468629.2461709682</v>
       </c>
       <c r="R17" t="n">
-        <v>6882801.477506777</v>
+        <v>6882722.464435354</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>

--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111438447</v>
+        <v>111438439</v>
       </c>
       <c r="B2" t="n">
-        <v>76495</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6487</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>468866.1318338988</v>
+        <v>468788.4775288465</v>
       </c>
       <c r="R2" t="n">
-        <v>6882808.390505624</v>
+        <v>6882785.67140964</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111438444</v>
+        <v>111438428</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77597</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>468841.2361184616</v>
+        <v>468740.5586073888</v>
       </c>
       <c r="R3" t="n">
-        <v>6882806.276033297</v>
+        <v>6882780.957796668</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438439</v>
+        <v>111438432</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468788.4775288465</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R4" t="n">
-        <v>6882785.67140964</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111438446</v>
+        <v>111438426</v>
       </c>
       <c r="B5" t="n">
-        <v>77550</v>
+        <v>76918</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>6437</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468853.3954624244</v>
+        <v>468629.2461709682</v>
       </c>
       <c r="R5" t="n">
-        <v>6882801.477506777</v>
+        <v>6882722.464435354</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111438425</v>
+        <v>111438453</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,42 +1184,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>468571.5178632676</v>
+        <v>468789.3971357156</v>
       </c>
       <c r="R6" t="n">
-        <v>6882722.999468728</v>
+        <v>6882885.489071017</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,11 +1256,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack i tall</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1285,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1303,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111438428</v>
+        <v>111438433</v>
       </c>
       <c r="B7" t="n">
-        <v>77597</v>
+        <v>78081</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1319,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>229821</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1343,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>468740.5586073888</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R7" t="n">
-        <v>6882780.957796668</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1407,7 +1394,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1425,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111438442</v>
+        <v>111438430</v>
       </c>
       <c r="B8" t="n">
-        <v>73696</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1441,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1465,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>468800.3617588138</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R8" t="n">
-        <v>6882801.965499061</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1529,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1547,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111438440</v>
+        <v>111438442</v>
       </c>
       <c r="B9" t="n">
-        <v>73689</v>
+        <v>73696</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1563,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>308</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1587,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>468800.2970216064</v>
+        <v>468800.3617588138</v>
       </c>
       <c r="R9" t="n">
-        <v>6882794.936009536</v>
+        <v>6882801.965499061</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1651,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>högstubbe björk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1669,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111438430</v>
+        <v>111438447</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>76495</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1685,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6487</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1709,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>468756.5460031229</v>
+        <v>468866.1318338988</v>
       </c>
       <c r="R10" t="n">
-        <v>6882784.091042386</v>
+        <v>6882808.390505624</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1773,7 +1760,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1791,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111438432</v>
+        <v>111438455</v>
       </c>
       <c r="B11" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1807,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1831,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>468756.5460031229</v>
+        <v>468784.2260541836</v>
       </c>
       <c r="R11" t="n">
-        <v>6882784.091042386</v>
+        <v>6882884.599394682</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1895,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1913,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111438457</v>
+        <v>111438440</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>73689</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1929,21 +1916,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>308</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1953,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>468747.5763832342</v>
+        <v>468800.2970216064</v>
       </c>
       <c r="R12" t="n">
-        <v>6882880.250689426</v>
+        <v>6882794.936009536</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2017,7 +2004,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>högstubbe björk</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2157,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111438455</v>
+        <v>111438446</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2173,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2197,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468784.2260541836</v>
+        <v>468853.3954624244</v>
       </c>
       <c r="R14" t="n">
-        <v>6882884.599394682</v>
+        <v>6882801.477506777</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2261,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2279,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111438453</v>
+        <v>111438425</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2295,34 +2282,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>468789.3971357156</v>
+        <v>468571.5178632676</v>
       </c>
       <c r="R15" t="n">
-        <v>6882885.489071017</v>
+        <v>6882722.999468728</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2367,6 +2362,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack i tall</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111438433</v>
+        <v>111438444</v>
       </c>
       <c r="B16" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2417,21 +2417,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>468756.5460031229</v>
+        <v>468841.2361184616</v>
       </c>
       <c r="R16" t="n">
-        <v>6882784.091042386</v>
+        <v>6882806.276033297</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111438426</v>
+        <v>111438457</v>
       </c>
       <c r="B17" t="n">
-        <v>76918</v>
+        <v>78107</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,21 +2539,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>468629.2461709682</v>
+        <v>468747.5763832342</v>
       </c>
       <c r="R17" t="n">
-        <v>6882722.464435354</v>
+        <v>6882880.250689426</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438432</v>
+        <v>111438426</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>76918</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468756.5460031229</v>
+        <v>468629.2461709682</v>
       </c>
       <c r="R4" t="n">
-        <v>6882784.091042386</v>
+        <v>6882722.464435354</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111438426</v>
+        <v>111438432</v>
       </c>
       <c r="B5" t="n">
-        <v>76918</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468629.2461709682</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R5" t="n">
-        <v>6882722.464435354</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>

--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111438439</v>
+        <v>111438428</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77597</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>864</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>468788.4775288465</v>
+        <v>468740.5586073888</v>
       </c>
       <c r="R2" t="n">
-        <v>6882785.67140964</v>
+        <v>6882780.957796668</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111438428</v>
+        <v>111438447</v>
       </c>
       <c r="B3" t="n">
-        <v>77597</v>
+        <v>76495</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>864</v>
+        <v>6487</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>468740.5586073888</v>
+        <v>468866.1318338988</v>
       </c>
       <c r="R3" t="n">
-        <v>6882780.957796668</v>
+        <v>6882808.390505624</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438426</v>
+        <v>111438440</v>
       </c>
       <c r="B4" t="n">
-        <v>76918</v>
+        <v>73689</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6437</v>
+        <v>308</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468629.2461709682</v>
+        <v>468800.2970216064</v>
       </c>
       <c r="R4" t="n">
-        <v>6882722.464435354</v>
+        <v>6882794.936009536</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>högstubbe björk</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111438453</v>
+        <v>111438435</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>468789.3971357156</v>
+        <v>468754.6686940129</v>
       </c>
       <c r="R6" t="n">
-        <v>6882885.489071017</v>
+        <v>6882784.108355919</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111438433</v>
+        <v>111438425</v>
       </c>
       <c r="B7" t="n">
-        <v>78081</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,34 +1306,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229821</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>468756.5460031229</v>
+        <v>468571.5178632676</v>
       </c>
       <c r="R7" t="n">
-        <v>6882784.091042386</v>
+        <v>6882722.999468728</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1378,6 +1386,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack i tall</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1394,7 +1407,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1412,10 +1425,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111438430</v>
+        <v>111438444</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1441,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1465,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>468756.5460031229</v>
+        <v>468841.2361184616</v>
       </c>
       <c r="R8" t="n">
-        <v>6882784.091042386</v>
+        <v>6882806.276033297</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1529,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1656,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111438447</v>
+        <v>111438433</v>
       </c>
       <c r="B10" t="n">
-        <v>76495</v>
+        <v>78081</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1685,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6487</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>468866.1318338988</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R10" t="n">
-        <v>6882808.390505624</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1791,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111438455</v>
+        <v>111438430</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1807,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1831,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>468784.2260541836</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R11" t="n">
-        <v>6882884.599394682</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1895,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,10 +1913,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111438440</v>
+        <v>111438439</v>
       </c>
       <c r="B12" t="n">
-        <v>73689</v>
+        <v>78107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,21 +1929,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1940,10 +1953,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>468800.2970216064</v>
+        <v>468788.4775288465</v>
       </c>
       <c r="R12" t="n">
-        <v>6882794.936009536</v>
+        <v>6882785.67140964</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2004,7 +2017,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>högstubbe björk</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2022,10 +2035,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111438435</v>
+        <v>111438455</v>
       </c>
       <c r="B13" t="n">
-        <v>76495</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2051,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2075,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>468754.6686940129</v>
+        <v>468784.2260541836</v>
       </c>
       <c r="R13" t="n">
-        <v>6882784.108355919</v>
+        <v>6882884.599394682</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2139,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2157,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111438446</v>
+        <v>111438457</v>
       </c>
       <c r="B14" t="n">
-        <v>77550</v>
+        <v>78107</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2173,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2184,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468853.3954624244</v>
+        <v>468747.5763832342</v>
       </c>
       <c r="R14" t="n">
-        <v>6882801.477506777</v>
+        <v>6882880.250689426</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2248,7 +2261,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2266,10 +2279,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111438425</v>
+        <v>111438446</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,42 +2295,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>468571.5178632676</v>
+        <v>468853.3954624244</v>
       </c>
       <c r="R15" t="n">
-        <v>6882722.999468728</v>
+        <v>6882801.477506777</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2362,11 +2367,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack i tall</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111438444</v>
+        <v>111438426</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>76918</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2417,21 +2417,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>468841.2361184616</v>
+        <v>468629.2461709682</v>
       </c>
       <c r="R16" t="n">
-        <v>6882806.276033297</v>
+        <v>6882722.464435354</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111438457</v>
+        <v>111438453</v>
       </c>
       <c r="B17" t="n">
         <v>78107</v>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>468747.5763832342</v>
+        <v>468789.3971357156</v>
       </c>
       <c r="R17" t="n">
-        <v>6882880.250689426</v>
+        <v>6882885.489071017</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 29434-2023.xlsx
+++ b/artfynd/A 29434-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111438428</v>
+        <v>111438457</v>
       </c>
       <c r="B2" t="n">
-        <v>77597</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>864</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>468740.5586073888</v>
+        <v>468747.5763832342</v>
       </c>
       <c r="R2" t="n">
-        <v>6882780.957796668</v>
+        <v>6882880.250689426</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111438447</v>
+        <v>111438430</v>
       </c>
       <c r="B3" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>468866.1318338988</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R3" t="n">
-        <v>6882808.390505624</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111438440</v>
+        <v>111438446</v>
       </c>
       <c r="B4" t="n">
-        <v>73689</v>
+        <v>77550</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468800.2970216064</v>
+        <v>468853.3954624244</v>
       </c>
       <c r="R4" t="n">
-        <v>6882794.936009536</v>
+        <v>6882801.477506777</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>högstubbe björk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111438432</v>
+        <v>111438444</v>
       </c>
       <c r="B5" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468756.5460031229</v>
+        <v>468841.2361184616</v>
       </c>
       <c r="R5" t="n">
-        <v>6882784.091042386</v>
+        <v>6882806.276033297</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111438435</v>
+        <v>111438428</v>
       </c>
       <c r="B6" t="n">
-        <v>76495</v>
+        <v>77597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6487</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>468754.6686940129</v>
+        <v>468740.5586073888</v>
       </c>
       <c r="R6" t="n">
-        <v>6882784.108355919</v>
+        <v>6882780.957796668</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111438425</v>
+        <v>111438442</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,42 +1306,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>468571.5178632676</v>
+        <v>468800.3617588138</v>
       </c>
       <c r="R7" t="n">
-        <v>6882722.999468728</v>
+        <v>6882801.965499061</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1386,11 +1378,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack i tall</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1407,7 +1394,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1425,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111438444</v>
+        <v>111438433</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>78081</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1441,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1465,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>468841.2361184616</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R8" t="n">
-        <v>6882806.276033297</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1529,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1547,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111438442</v>
+        <v>111438439</v>
       </c>
       <c r="B9" t="n">
-        <v>73696</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1563,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1587,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>468800.3617588138</v>
+        <v>468788.4775288465</v>
       </c>
       <c r="R9" t="n">
-        <v>6882801.965499061</v>
+        <v>6882785.67140964</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1651,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1669,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111438433</v>
+        <v>111438447</v>
       </c>
       <c r="B10" t="n">
-        <v>78081</v>
+        <v>76495</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1685,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>6487</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1709,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>468756.5460031229</v>
+        <v>468866.1318338988</v>
       </c>
       <c r="R10" t="n">
-        <v>6882784.091042386</v>
+        <v>6882808.390505624</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1791,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111438430</v>
+        <v>111438440</v>
       </c>
       <c r="B11" t="n">
-        <v>77268</v>
+        <v>73689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1807,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>308</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1831,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>468756.5460031229</v>
+        <v>468800.2970216064</v>
       </c>
       <c r="R11" t="n">
-        <v>6882784.091042386</v>
+        <v>6882794.936009536</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1895,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>högstubbe björk</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1913,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111438439</v>
+        <v>111438425</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1929,34 +1916,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sundslätt, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>468788.4775288465</v>
+        <v>468571.5178632676</v>
       </c>
       <c r="R12" t="n">
-        <v>6882785.67140964</v>
+        <v>6882722.999468728</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2001,6 +1996,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack i tall</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111438455</v>
+        <v>111438453</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2051,21 +2051,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>468784.2260541836</v>
+        <v>468789.3971357156</v>
       </c>
       <c r="R13" t="n">
-        <v>6882884.599394682</v>
+        <v>6882885.489071017</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111438457</v>
+        <v>111438432</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2173,21 +2173,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>468747.5763832342</v>
+        <v>468756.5460031229</v>
       </c>
       <c r="R14" t="n">
-        <v>6882880.250689426</v>
+        <v>6882784.091042386</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>silverved tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111438446</v>
+        <v>111438455</v>
       </c>
       <c r="B15" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2295,21 +2295,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>468853.3954624244</v>
+        <v>468784.2260541836</v>
       </c>
       <c r="R15" t="n">
-        <v>6882801.477506777</v>
+        <v>6882884.599394682</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111438453</v>
+        <v>111438435</v>
       </c>
       <c r="B17" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,21 +2539,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>468789.3971357156</v>
+        <v>468754.6686940129</v>
       </c>
       <c r="R17" t="n">
-        <v>6882885.489071017</v>
+        <v>6882784.108355919</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
